--- a/data/trans_orig/P1418-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192775C5-9B2D-4F2A-8DF3-0C0D5782DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA8A39D-50CA-47AB-8D8C-72234101D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E985423F-5BAE-4743-9DEB-D5C0CA2FA8B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF8FC5DC-AFC6-4C64-9AFA-3F72E85451AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,25 +95,25 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,64%</t>
+    <t>13,66%</t>
   </si>
   <si>
     <t>16,48%</t>
@@ -125,19 +125,19 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -146,7 +146,7 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>86,36%</t>
+    <t>86,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,847 +164,862 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>93,26%</t>
@@ -1013,7 +1028,7 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>93,79%</t>
+    <t>93,84%</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88330DC5-6713-4B5B-BDEB-629D0728B06D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56B5D1A-666E-45FB-91BB-FDCF56741B91}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2311,7 @@
         <v>5997</v>
       </c>
       <c r="N18" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2347,7 +2362,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2380,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A87EB99-C51F-4C21-AB0E-B7C3F66FCE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CB4E0-A9B8-4571-989C-238C2892DB34}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2970,10 +2985,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2982,13 +2997,13 @@
         <v>9255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2997,13 +3012,13 @@
         <v>14269</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3033,13 @@
         <v>476166</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3033,13 +3048,13 @@
         <v>449376</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
@@ -3048,13 +3063,13 @@
         <v>925543</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3188,13 @@
         <v>106891</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>318</v>
@@ -3188,13 +3203,13 @@
         <v>345832</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -3203,13 +3218,13 @@
         <v>452724</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3239,13 @@
         <v>3312891</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2973</v>
@@ -3239,13 +3254,13 @@
         <v>3204141</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>6077</v>
@@ -3254,13 +3269,13 @@
         <v>6517031</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E25014B-C7C5-4097-98B6-867FCAE10C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B9BA4-CF39-4A58-94F5-CE5897B4D136}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3465,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3480,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3510,13 +3525,13 @@
         <v>47455</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3525,13 +3540,13 @@
         <v>151897</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
@@ -3540,13 +3555,13 @@
         <v>199352</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3576,13 @@
         <v>706892</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>761</v>
@@ -3576,13 +3591,13 @@
         <v>842763</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1473</v>
@@ -3591,13 +3606,13 @@
         <v>1549655</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3731,13 @@
         <v>30441</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -3731,13 +3746,13 @@
         <v>87584</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -3746,10 +3761,10 @@
         <v>118024</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>208</v>
@@ -3803,7 +3818,7 @@
         <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3907,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3937,13 @@
         <v>3816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3937,13 +3952,13 @@
         <v>13642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3991,10 +4006,10 @@
         <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>1012</v>
@@ -4003,13 +4018,13 @@
         <v>1078568</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4143,7 @@
         <v>81712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>236</v>
@@ -4161,7 +4176,7 @@
         <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>242</v>
@@ -4179,13 +4194,13 @@
         <v>3295906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>3105</v>
@@ -4194,13 +4209,13 @@
         <v>3278977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>6238</v>
@@ -4209,13 +4224,13 @@
         <v>6574883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7807A62-6F5C-460A-BC8A-AFE0AF93563F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED4D03E-A9F1-4DA5-ADF4-11C93C4B91BD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4307,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4420,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4429,13 +4444,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4450,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4480,13 @@
         <v>67086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -4480,13 +4495,13 @@
         <v>169422</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>391</v>
@@ -4495,13 +4510,13 @@
         <v>236507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,28 +4531,28 @@
         <v>472161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>1131</v>
       </c>
       <c r="I6" s="7">
-        <v>662386</v>
+        <v>662387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>1722</v>
@@ -4546,13 +4561,13 @@
         <v>1134549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4594,7 @@
         <v>1425</v>
       </c>
       <c r="I7" s="7">
-        <v>834570</v>
+        <v>834571</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4641,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4650,7 +4665,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4671,13 +4686,13 @@
         <v>67929</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>214</v>
@@ -4686,13 +4701,13 @@
         <v>131027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>292</v>
@@ -4701,7 +4716,7 @@
         <v>198956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>281</v>
@@ -4749,7 +4764,7 @@
         <v>4612</v>
       </c>
       <c r="N10" s="7">
-        <v>4206490</v>
+        <v>4206491</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>289</v>
@@ -4800,7 +4815,7 @@
         <v>4905</v>
       </c>
       <c r="N11" s="7">
-        <v>4406164</v>
+        <v>4406165</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4832,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4847,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4898,7 +4913,7 @@
         <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4907,13 +4922,13 @@
         <v>44040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4943,13 @@
         <v>660445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -4943,13 +4958,13 @@
         <v>679652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>1617</v>
@@ -4958,13 +4973,13 @@
         <v>1340098</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5062,13 +5077,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5098,13 @@
         <v>146506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>557</v>
@@ -5098,13 +5113,13 @@
         <v>332998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>747</v>
@@ -5113,13 +5128,13 @@
         <v>479504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5149,13 @@
         <v>3224717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>4782</v>
@@ -5149,13 +5164,13 @@
         <v>3456419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>7951</v>
@@ -5164,13 +5179,13 @@
         <v>6681136</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1418-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA8A39D-50CA-47AB-8D8C-72234101D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F40C43-2032-4588-91D1-6BFF9C1B4835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF8FC5DC-AFC6-4C64-9AFA-3F72E85451AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{403F309A-47A5-42EF-958C-505E523AAEFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="324">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,19 +230,19 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -251,31 +251,31 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>97,76%</t>
@@ -287,606 +287,600 @@
     <t>5,47%</t>
   </si>
   <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>6,71%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
     <t>5,2%</t>
   </si>
   <si>
@@ -908,9 +902,6 @@
     <t>95,18%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
     <t>94,79%</t>
   </si>
   <si>
@@ -941,9 +932,6 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
     <t>4,14%</t>
   </si>
   <si>
@@ -969,12 +957,6 @@
   </si>
   <si>
     <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -1440,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56B5D1A-666E-45FB-91BB-FDCF56741B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CB8329-4067-4156-9DA5-A0FE14D3A481}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,7 +1851,7 @@
         <v>1598</v>
       </c>
       <c r="D10" s="7">
-        <v>1643546</v>
+        <v>1643547</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1920,7 +1902,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2281,7 +2263,7 @@
         <v>3031</v>
       </c>
       <c r="D18" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2332,7 +2314,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2395,7 +2377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CB4E0-A9B8-4571-989C-238C2892DB34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E692597-51B8-435D-A58F-F8046BAF3DD1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,10 +2967,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2997,13 +2979,13 @@
         <v>9255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3012,13 +2994,13 @@
         <v>14269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3015,13 @@
         <v>476166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3048,13 +3030,13 @@
         <v>449376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
@@ -3063,13 +3045,13 @@
         <v>925543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,10 +3170,10 @@
         <v>106891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>162</v>
@@ -3245,7 +3227,7 @@
         <v>170</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>2973</v>
@@ -3254,13 +3236,13 @@
         <v>3204141</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>6077</v>
@@ -3269,13 +3251,13 @@
         <v>6517031</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B9BA4-CF39-4A58-94F5-CE5897B4D136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6AB83-D9D5-4A4F-B954-FEE636B8296E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3480,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3495,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3525,13 +3507,13 @@
         <v>47455</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -3540,13 +3522,13 @@
         <v>151897</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
@@ -3555,13 +3537,13 @@
         <v>199352</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3558,13 @@
         <v>706892</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H6" s="7">
         <v>761</v>
@@ -3591,13 +3573,13 @@
         <v>842763</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>1473</v>
@@ -3606,13 +3588,13 @@
         <v>1549655</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3713,13 @@
         <v>30441</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -3746,13 +3728,13 @@
         <v>87584</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -3761,13 +3743,13 @@
         <v>118024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3764,13 @@
         <v>2045944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>1830</v>
@@ -3797,13 +3779,13 @@
         <v>1900716</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>3753</v>
@@ -3812,13 +3794,13 @@
         <v>3946661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3922,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3919,13 @@
         <v>3816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3952,13 +3934,13 @@
         <v>13642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3967,13 +3949,13 @@
         <v>17458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3970,13 @@
         <v>543070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -4003,13 +3985,13 @@
         <v>535498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1012</v>
@@ -4018,13 +4000,13 @@
         <v>1078568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4125,13 @@
         <v>81712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -4158,13 +4140,13 @@
         <v>253123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -4173,13 +4155,13 @@
         <v>334835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4176,13 @@
         <v>3295906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>3105</v>
@@ -4209,13 +4191,13 @@
         <v>3278977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>6238</v>
@@ -4224,13 +4206,13 @@
         <v>6574883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED4D03E-A9F1-4DA5-ADF4-11C93C4B91BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28DBC3C-0410-4CEE-BAF6-317C63D1DA9D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4435,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4444,13 +4426,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4465,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4462,13 @@
         <v>67086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -4495,13 +4477,13 @@
         <v>169422</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>391</v>
@@ -4510,13 +4492,13 @@
         <v>236507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4513,13 @@
         <v>472161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>1131</v>
@@ -4546,13 +4528,13 @@
         <v>662387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M6" s="7">
         <v>1722</v>
@@ -4561,13 +4543,13 @@
         <v>1134549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4665,7 +4647,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4686,13 +4668,13 @@
         <v>67929</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>214</v>
@@ -4701,13 +4683,13 @@
         <v>131027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>292</v>
@@ -4716,13 +4698,13 @@
         <v>198956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4719,13 @@
         <v>2092111</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>2700</v>
@@ -4752,13 +4734,13 @@
         <v>2114380</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>4612</v>
@@ -4767,13 +4749,13 @@
         <v>4206491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4862,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4877,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4874,13 @@
         <v>11491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4907,13 +4889,13 @@
         <v>32549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -4922,13 +4904,13 @@
         <v>44040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4925,13 @@
         <v>660445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -4958,13 +4940,13 @@
         <v>679652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1617</v>
@@ -4973,13 +4955,13 @@
         <v>1340098</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5050,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5077,7 +5059,7 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -5098,13 +5080,13 @@
         <v>146506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>557</v>
@@ -5113,13 +5095,13 @@
         <v>332998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>747</v>
@@ -5128,13 +5110,13 @@
         <v>479504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5131,13 @@
         <v>3224717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>4782</v>
@@ -5164,13 +5146,13 @@
         <v>3456419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>7951</v>
@@ -5179,13 +5161,13 @@
         <v>6681136</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1418-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963F6B2F-3B94-420C-B8F6-E6FD5349EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA50E177-C364-4FDF-85A9-0BF7CCF70C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C70E090-C80C-4394-AC55-1264093F3FDC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB5FBD71-FC19-460E-B336-F109AFF4CB58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,202 +728,202 @@
     <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7B0FA-93C2-4D58-9DF5-B101568B39C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119970A2-6E9A-413C-BA25-CFFA7B708BCA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,7 +1537,7 @@
         <v>1980</v>
       </c>
       <c r="N5" s="7">
-        <v>1994383</v>
+        <v>1994382</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1588,7 +1588,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1662,7 +1662,7 @@
         <v>1598</v>
       </c>
       <c r="D8" s="7">
-        <v>1643546</v>
+        <v>1643547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1972,7 @@
         <v>3031</v>
       </c>
       <c r="D14" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1987,7 +1987,7 @@
         <v>2966</v>
       </c>
       <c r="I14" s="7">
-        <v>3036046</v>
+        <v>3036045</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2002,7 +2002,7 @@
         <v>5997</v>
       </c>
       <c r="N14" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2023,7 +2023,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2038,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC4E2F-E4B6-494A-A414-992DAB25D09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00BFA6F-F533-4665-81BB-63E3FBA5BD9D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,7 +2222,7 @@
         <v>231</v>
       </c>
       <c r="I4" s="7">
-        <v>248337</v>
+        <v>248338</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2324,7 +2324,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2428,7 +2428,7 @@
         <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>1665306</v>
+        <v>1665305</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2479,7 +2479,7 @@
         <v>1632</v>
       </c>
       <c r="I9" s="7">
-        <v>1753546</v>
+        <v>1753545</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2598,7 +2598,7 @@
         <v>837</v>
       </c>
       <c r="N11" s="7">
-        <v>925543</v>
+        <v>925544</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2649,7 +2649,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C11632E-FA9E-4B03-8FFE-AC9FEF5D321C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D59D2D7-5CC2-4B53-BA44-766DA06CC730}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3349,7 @@
         <v>1012</v>
       </c>
       <c r="N11" s="7">
-        <v>1078568</v>
+        <v>1078569</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>211</v>
@@ -3400,7 +3400,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090885CB-681C-428C-B2C5-BD671DBA7939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9663C4-2D14-46B9-8B6E-5379AFA6207C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3709,7 @@
         <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>67086</v>
+        <v>63051</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3724,7 +3724,7 @@
         <v>293</v>
       </c>
       <c r="I4" s="7">
-        <v>169422</v>
+        <v>150721</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3739,7 +3739,7 @@
         <v>391</v>
       </c>
       <c r="N4" s="7">
-        <v>236507</v>
+        <v>213772</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3760,7 +3760,7 @@
         <v>591</v>
       </c>
       <c r="D5" s="7">
-        <v>472161</v>
+        <v>449569</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3775,7 +3775,7 @@
         <v>1131</v>
       </c>
       <c r="I5" s="7">
-        <v>662386</v>
+        <v>601203</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3790,7 +3790,7 @@
         <v>1722</v>
       </c>
       <c r="N5" s="7">
-        <v>1134549</v>
+        <v>1050772</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3811,7 +3811,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539247</v>
+        <v>512620</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3826,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831808</v>
+        <v>751924</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3841,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1371056</v>
+        <v>1264544</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,7 +3864,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>67929</v>
+        <v>64004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3879,31 +3879,31 @@
         <v>214</v>
       </c>
       <c r="I7" s="7">
-        <v>131027</v>
+        <v>120422</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>292</v>
       </c>
       <c r="N7" s="7">
-        <v>198956</v>
+        <v>184426</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3915,46 @@
         <v>1912</v>
       </c>
       <c r="D8" s="7">
-        <v>2092111</v>
+        <v>2224461</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2700</v>
       </c>
       <c r="I8" s="7">
-        <v>2114380</v>
+        <v>2113611</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4612</v>
       </c>
       <c r="N8" s="7">
-        <v>4206491</v>
+        <v>4338072</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160040</v>
+        <v>2288465</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3981,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2245407</v>
+        <v>2234033</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3996,7 @@
         <v>4904</v>
       </c>
       <c r="N9" s="7">
-        <v>4405447</v>
+        <v>4522498</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,46 +4019,46 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>11491</v>
+        <v>11071</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>32549</v>
+        <v>30194</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>44040</v>
+        <v>41265</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>666</v>
       </c>
       <c r="D11" s="7">
-        <v>660445</v>
+        <v>634496</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4085,31 +4085,31 @@
         <v>951</v>
       </c>
       <c r="I11" s="7">
-        <v>679652</v>
+        <v>628694</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1617</v>
       </c>
       <c r="N11" s="7">
-        <v>1340098</v>
+        <v>1263190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671936</v>
+        <v>645567</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4136,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>712201</v>
+        <v>658888</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4151,7 @@
         <v>1681</v>
       </c>
       <c r="N12" s="7">
-        <v>1384138</v>
+        <v>1304455</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4174,46 @@
         <v>190</v>
       </c>
       <c r="D13" s="7">
-        <v>146506</v>
+        <v>138127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
       </c>
       <c r="I13" s="7">
-        <v>332998</v>
+        <v>301337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>747</v>
       </c>
       <c r="N13" s="7">
-        <v>479504</v>
+        <v>439464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,37 +4225,37 @@
         <v>3169</v>
       </c>
       <c r="D14" s="7">
-        <v>3224717</v>
+        <v>3308525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4782</v>
       </c>
       <c r="I14" s="7">
-        <v>3456419</v>
+        <v>3343508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>7951</v>
       </c>
       <c r="N14" s="7">
-        <v>6681136</v>
+        <v>6652033</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>292</v>
@@ -4276,7 +4276,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371223</v>
+        <v>3446652</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4291,7 @@
         <v>5339</v>
       </c>
       <c r="I15" s="7">
-        <v>3789417</v>
+        <v>3644845</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4306,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7160640</v>
+        <v>7091497</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
